--- a/com.SmartGatePuls.SDET/src/test/Automation.xlsx
+++ b/com.SmartGatePuls.SDET/src/test/Automation.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Seleniumwebdriver\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B72649-CF72-439C-8422-09377B13416F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5EB48306-C011-4429-9382-88D2A109C7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{6452F18F-7895-4B2D-8A43-7E46840F2AF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{6452F18F-7895-4B2D-8A43-7E46840F2AF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DeprtmentGroupName</t>
   </si>
@@ -48,6 +44,12 @@
   </si>
   <si>
     <t>AutomatonTest</t>
+  </si>
+  <si>
+    <t>AutomatontestReason</t>
+  </si>
+  <si>
+    <t>123Atomation</t>
   </si>
 </sst>
 </file>
@@ -419,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5162B0-3621-417E-80E6-F58D97FFD320}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +433,7 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,12 +441,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
